--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/JOSE AZUETA.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/JOSE AZUETA.xlsx
@@ -11,9 +11,8 @@
     <x:sheet name="EKIP" sheetId="4" r:id="rId4"/>
     <x:sheet name="EKIPINTER" sheetId="5" r:id="rId5"/>
     <x:sheet name="TEKFLEET" sheetId="6" r:id="rId6"/>
-    <x:sheet name="PROCOTIZA" sheetId="7" r:id="rId7"/>
-    <x:sheet name="PRODESK" sheetId="8" r:id="rId8"/>
-    <x:sheet name="INBROKER" sheetId="9" r:id="rId9"/>
+    <x:sheet name="PRODESK" sheetId="7" r:id="rId7"/>
+    <x:sheet name="INBROKER" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
@@ -21,9 +20,8 @@
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EKIP!$A$5:$I$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EKIPINTER!$A$5:$H$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TEKFLEET!$A$5:$J$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PROCOTIZA!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -1548,16 +1546,10 @@
     <x:t>NFCGEF</x:t>
   </x:si>
   <x:si>
-    <x:t>PROCOTIZA</x:t>
+    <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
     <x:t>Fecha de Creacion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
     <x:t>A</x:t>
@@ -8255,119 +8247,6 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="35.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="7.567768" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="D2" s="1" t="s">
-        <x:v>505</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>506</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s">
-        <x:v>505</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>507</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>45208</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45296</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:K5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
     <x:col min="1" max="1" width="9.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="28.282054" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
@@ -8387,7 +8266,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>508</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -8434,7 +8313,7 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>508</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>348</x:v>
@@ -8443,10 +8322,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>509</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>510</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45098</x:v>
@@ -8470,7 +8349,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8500,7 +8379,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>511</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -8530,10 +8409,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>512</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>513</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -8547,10 +8426,10 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>511</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>514</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>126</x:v>
@@ -8559,10 +8438,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>515</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>516</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="G6" s="5">
         <x:v>45355.4491189468</x:v>
@@ -8575,22 +8454,22 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>511</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>518</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>515</x:v>
-      </x:c>
-      <x:c r="F7" s="3" t="s">
-        <x:v>519</x:v>
       </x:c>
       <x:c r="G7" s="5">
         <x:v>45355.5282599537</x:v>
